--- a/Madz.DatabaseMetaData/doc/DB_Generate_Request.xlsx
+++ b/Madz.DatabaseMetaData/doc/DB_Generate_Request.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="120" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,24 +844,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +869,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,13 +1241,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" style="2" customWidth="1"/>
@@ -1259,33 +1259,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="5"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="53" hidden="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1434,13 +1434,13 @@
       <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="91" hidden="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1455,12 +1455,12 @@
       <c r="G10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1497,12 +1497,12 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1869,6 +1869,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
+      <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1883,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1900,6 +1902,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
+      <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
@@ -1919,7 +1922,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
@@ -1933,7 +1937,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
@@ -1948,6 +1953,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
+      <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
         <v>81</v>
       </c>
@@ -1965,6 +1971,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
+      <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
@@ -1982,10 +1989,11 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2002,10 +2010,11 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2015,34 +2024,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="32" hidden="1" customHeight="1">
+    <row r="42" spans="1:8" s="5" customFormat="1" ht="32" hidden="1" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="17" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="18"/>
+      <c r="G42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="20"/>
       <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2098,7 +2107,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2115,7 +2124,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="1" t="s">
         <v>105</v>
       </c>
@@ -2130,7 +2139,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="1" t="s">
         <v>106</v>
       </c>
@@ -2145,7 +2154,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="10"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
         <v>107</v>
       </c>
@@ -2160,7 +2169,7 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="10"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
         <v>108</v>
       </c>
@@ -2175,7 +2184,7 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="10"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>109</v>
       </c>
@@ -2196,7 +2205,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="10"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
@@ -2217,7 +2226,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" hidden="1">
-      <c r="A54" s="11"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2241,7 +2250,7 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2258,7 +2267,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="10"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="1" t="s">
         <v>120</v>
       </c>
@@ -2273,7 +2282,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="10"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -2288,7 +2297,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="11"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="1" t="s">
         <v>121</v>
       </c>
@@ -2303,16 +2312,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="A18:A31"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A32:A41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Madz.DatabaseMetaData/doc/DB_Generate_Request.xlsx
+++ b/Madz.DatabaseMetaData/doc/DB_Generate_Request.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MySQL" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A41"/>
+      <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
